--- a/biology/Biologie cellulaire et moléculaire/Filamine_A/Filamine_A.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Filamine_A/Filamine_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La filamine A est la principale isoforme des filamines, protéines se fixant sur l'actine et stabilisant la structure tridimensionnelle de cette dernière. Son gène est le FLNA situé sur le chromosome X humain. 
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son rôle de stabilisation de l'actine, elle intervient dans les jonctions intercellulaires[5] et dans la fonction endothéliale[6].
-Elle interagit avec le HIF-1α (« hypoxia-inducible factor-1α ») en cas d'hypoxie[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son rôle de stabilisation de l'actine, elle intervient dans les jonctions intercellulaires et dans la fonction endothéliale.
+Elle interagit avec le HIF-1α (« hypoxia-inducible factor-1α ») en cas d'hypoxie.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation de son gène est retrouvée dans plusieurs syndromes malformatifs[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation de son gène est retrouvée dans plusieurs syndromes malformatifs :
 le syndrome oto-palato-digital de type I et II ;
 la dysplasie frontométaphysaire ;
 le syndrome de Melnick-Needles ;
 l'hétérotopie nodulaire héréditaire liée à l'X.
-Elle peut également causer une valvulopathie cardiaque[9] ou une thrombopénie isolée[10].
+Elle peut également causer une valvulopathie cardiaque ou une thrombopénie isolée.
 </t>
         </is>
       </c>
